--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>447644.8147288875</v>
+        <v>445757.2332124858</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>600259.2756171688</v>
+        <v>279414.8775636102</v>
       </c>
     </row>
     <row r="8">
@@ -665,13 +665,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>220.0312473843229</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>225.3544710364039</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773045</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>70.03418953492981</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>76.3759062602239</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>312.102101507191</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.2441031577617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.9755501377538</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>22.35153719005456</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6.324117402444546</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>59.65970538807402</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>9.22084658737597</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>43.8374309337276</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>196.6334179308619</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>9.621991078756654</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385028</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>73.65437485990643</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>146.2787299119456</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>20.07737158089238</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>169.4333835975974</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>161.8175117958951</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>183.4653217847135</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>145.5209865847984</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>8.525532102719723</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>64.03147130694947</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>42.20569823125542</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.7610957752358</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2134.371763268271</v>
+        <v>1533.27522618254</v>
       </c>
       <c r="C2" t="n">
-        <v>1765.409246327859</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D2" t="n">
-        <v>1407.143547721109</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>1021.355295122865</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,13 +4346,13 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
         <v>2520.971603332393</v>
@@ -4367,13 +4367,13 @@
         <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>2293.340824507742</v>
       </c>
       <c r="X2" t="n">
-        <v>2520.971603332393</v>
+        <v>1919.875066246662</v>
       </c>
       <c r="Y2" t="n">
-        <v>2520.971603332393</v>
+        <v>1919.875066246662</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,19 +4404,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>650.9816041456021</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>650.9816041456021</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>650.9816041456021</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>361.80799380017</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>361.80799380017</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>361.80799380017</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X4" t="n">
-        <v>361.80799380017</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="Y4" t="n">
-        <v>361.80799380017</v>
+        <v>124.6845874112026</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1001.280783616703</v>
+        <v>1507.089911220684</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762914</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4598,19 +4598,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X5" t="n">
-        <v>1773.985778385635</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1387.880623680825</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>381.5656062325725</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>223.8172336651026</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1374.814428194113</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C8" t="n">
-        <v>1005.851911253702</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="D8" t="n">
-        <v>1005.851911253702</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>1005.851911253702</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>594.8660064640942</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1761.414268258235</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1761.414268258235</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.25696827225937</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>63.25696827225937</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>63.25696827225937</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>352.67413830922</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>352.67413830922</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>352.67413830922</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W10" t="n">
-        <v>63.25696827225937</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X10" t="n">
-        <v>63.25696827225937</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.25696827225937</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5024,34 +5024,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822455</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5063,10 +5063,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>436.8967109626374</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1050.793780719526</v>
+        <v>923.0735494570371</v>
       </c>
       <c r="M12" t="n">
-        <v>1819.161927111988</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>676.0189678006951</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>965.4361378376559</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V13" t="n">
-        <v>965.4361378376559</v>
+        <v>776.3630235686834</v>
       </c>
       <c r="W13" t="n">
-        <v>676.0189678006951</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="X13" t="n">
-        <v>676.0189678006951</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.0189678006951</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,31 +5294,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171746</v>
+        <v>684.6446521972974</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1453.012798589759</v>
       </c>
       <c r="N15" t="n">
-        <v>1954.109744073479</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.6596981028219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.517912113552</v>
+        <v>755.1831334811255</v>
       </c>
       <c r="W16" t="n">
-        <v>1135.100742076592</v>
+        <v>465.7659634441649</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.100742076592</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>914.3081629330617</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>436.8967109626374</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>1050.793780719526</v>
+        <v>463.2137177573981</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>379.1484955647068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.579090436494</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>781.5895395384766</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>560.7969603949465</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M21" t="n">
-        <v>1819.161927111988</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>2115.681725457453</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2115.681725457453</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,16 +5914,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>260.6691235773515</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
-        <v>334.288126757867</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1221.963989254139</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>244.2079870004862</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>244.2079870004862</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>244.2079870004862</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>874.6385818722733</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>646.649030974256</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>425.8564518307259</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,13 +6236,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6251,7 +6251,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>504.1719681164606</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>1118.069037873349</v>
       </c>
       <c r="M27" t="n">
-        <v>334.288126757867</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>105.8287400488916</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028587</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011509</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952641</v>
+        <v>844.0280401273995</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>554.610870090439</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>326.6213191924217</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>105.8287400488916</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6461,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6482,13 +6482,13 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>493.5013994809974</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>1261.869545873459</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542185</v>
+        <v>439.5324299542165</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076824</v>
+        <v>374.854176108813</v>
       </c>
       <c r="D31" t="n">
-        <v>232.0013381767175</v>
+        <v>280.498401977848</v>
       </c>
       <c r="E31" t="n">
-        <v>139.8491098756954</v>
+        <v>188.3461736768255</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028587</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>902.6804289818916</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652468</v>
+        <v>730.451743365245</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030874</v>
+        <v>565.4200295030855</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>1039.477879194978</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1843.889457459128</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7072,58 +7072,58 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025263</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010317</v>
@@ -7172,10 +7172,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7184,16 +7184,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,7 +7254,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L39" t="n">
         <v>1122.004430061687</v>
@@ -7263,16 +7263,16 @@
         <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2483.646646175729</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7333,22 +7333,22 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,28 +7409,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,25 +7491,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>661.3152587829629</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7585,16 +7585,16 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7728,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454149</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1961.218619068865</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2209.972033152827</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2392.615510766178</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,16 +8778,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>316.8748766409842</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9495,10 +9495,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,7 +9723,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10194,10 +10194,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10434,7 +10434,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>194.481769626229</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>353.0203989689785</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>89.60393446771548</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>242.5156522450714</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>178.4832684639216</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>79.43092547709153</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>147.1694495177354</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>117.0896147389936</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>5.429309302732747</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>103.0576765518775</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0.91297606177082</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338589</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>158.7212889959081</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>48.0120931631214</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>48.01209316311875</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>93.71057173897916</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>55.215988835715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1098419.77083223</v>
+        <v>1098419.770832229</v>
       </c>
     </row>
     <row r="12">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457134</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
-        <v>312823.2477901672</v>
+        <v>312823.2477901671</v>
       </c>
       <c r="F2" t="n">
-        <v>312823.2477901672</v>
+        <v>312823.2477901671</v>
       </c>
       <c r="G2" t="n">
         <v>312823.2477901672</v>
       </c>
       <c r="H2" t="n">
-        <v>312823.247790167</v>
+        <v>312823.2477901672</v>
       </c>
       <c r="I2" t="n">
         <v>312823.2477901672</v>
@@ -26338,22 +26338,22 @@
         <v>312823.247790167</v>
       </c>
       <c r="K2" t="n">
-        <v>325457.7098762159</v>
+        <v>325457.709876216</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457137</v>
+        <v>328416.7079457142</v>
       </c>
       <c r="M2" t="n">
-        <v>328416.7079457137</v>
+        <v>328416.7079457141</v>
       </c>
       <c r="N2" t="n">
         <v>328416.7079457138</v>
       </c>
       <c r="O2" t="n">
-        <v>328416.7079457139</v>
+        <v>328416.7079457137</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457139</v>
+        <v>328416.7079457137</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284555</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,37 +26424,37 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758825</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758488</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477237</v>
+        <v>18952.41620477235</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189638</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-483469.3885128598</v>
+        <v>-483469.3885128597</v>
       </c>
       <c r="C6" t="n">
+        <v>106498.4907016849</v>
+      </c>
+      <c r="D6" t="n">
         <v>106498.4907016848</v>
       </c>
-      <c r="D6" t="n">
-        <v>106498.4907016849</v>
-      </c>
       <c r="E6" t="n">
-        <v>-305111.9083260216</v>
+        <v>-305209.3674519937</v>
       </c>
       <c r="F6" t="n">
-        <v>220048.1281508747</v>
+        <v>219950.6690249025</v>
       </c>
       <c r="G6" t="n">
-        <v>220048.1281508747</v>
+        <v>219950.6690249025</v>
       </c>
       <c r="H6" t="n">
-        <v>220048.1281508745</v>
+        <v>219950.6690249025</v>
       </c>
       <c r="I6" t="n">
-        <v>220048.1281508747</v>
+        <v>219950.6690249024</v>
       </c>
       <c r="J6" t="n">
-        <v>43624.90895828151</v>
+        <v>43527.44983230933</v>
       </c>
       <c r="K6" t="n">
-        <v>165714.4798383751</v>
+        <v>165695.9861004409</v>
       </c>
       <c r="L6" t="n">
-        <v>197152.1143929251</v>
+        <v>197152.1143929255</v>
       </c>
       <c r="M6" t="n">
-        <v>72694.00595995474</v>
+        <v>72694.00595995518</v>
       </c>
       <c r="N6" t="n">
         <v>207495.0211937921</v>
       </c>
       <c r="O6" t="n">
-        <v>207495.0211937923</v>
+        <v>207495.021193792</v>
       </c>
       <c r="P6" t="n">
-        <v>163332.4158909466</v>
+        <v>163332.4158909465</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108354</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>186.8447983573885</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>123.8864976810091</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>109.7977906470075</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>70.28928571993396</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>53.17079026381657</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.993835498291901</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>11.99007165458447</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>348.3589242182384</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>354.124464632721</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>146.9500422544192</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>174.7472224183672</v>
       </c>
     </row>
     <row r="11">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29560,10 +29560,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30271,13 +30271,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31127,10 +31127,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31139,7 +31139,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31367,7 +31367,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,7 +31616,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578339</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,22 +31838,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>216.4869287318324</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>307.2874645638407</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31862,13 +31862,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32078,34 +32078,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>131.4209907335603</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961211</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32315,34 +32315,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>216.4869287318324</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>10.78379835447038</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,16 +32488,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>380.6284621420188</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>19.7059322144645</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32798,19 +32798,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>330.1172231204807</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,34 +33020,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>116.4405196423989</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,10 +33257,10 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -33269,22 +33269,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>169.8027246815376</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304423</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,7 +33494,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -33506,22 +33506,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>21.66149467939451</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -33743,28 +33743,28 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>333.5825313078688</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946974</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,28 +33962,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33995,13 +33995,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304423</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304423</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,28 +34436,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34466,16 +34466,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.4580040397281</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35015,7 +35015,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901189</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>343.110726770052</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>539.5734300874257</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>178.3204968611101</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>479.4216529937805</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>343.110726770052</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>243.0697638780554</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36139,10 +36139,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>704.1994919700004</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>204.1942934400714</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>581.3832979527658</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>243.0643176806185</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>517.8033869417578</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -36999,16 +36999,16 @@
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>206.1498559050014</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>657.1535611358504</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>60.50736221189879</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>210.8863650469602</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>222.5535176895557</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
